--- a/Controlled Documents/Risk Anlysis/Risk management document_0.1.xlsx
+++ b/Controlled Documents/Risk Anlysis/Risk management document_0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maja/Documents/GitHub/P6UI/Controlled Documents/Risk Anlysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E1D3A5-476D-5849-8CF0-FAA92E3C58C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5DDB06-BBF9-8545-806F-B87801FDFBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="100" windowWidth="28240" windowHeight="17240" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28240" windowHeight="17240" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Hazard ID#</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Cause of hazardous situation</t>
+  </si>
+  <si>
+    <t>Sequence of events</t>
+  </si>
+  <si>
+    <t>Ref. to 14971</t>
+  </si>
+  <si>
+    <t>Hazardous situation</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object at risk </t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Risk estimate</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>Risk Mitigation</t>
+  </si>
+  <si>
+    <t>Residual risk estimate</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>Is risk acceptable?</t>
+  </si>
+  <si>
+    <t>New hazards or hazardous situations?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -62,12 +148,451 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +907,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB9731-388B-DD46-8BCB-B4ED8E89DF18}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="14" width="4.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1640625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="4.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="2:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>